--- a/书.xlsx
+++ b/书.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\htlbvd\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="9180" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="9180" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="心理学" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="海德格尔文集" sheetId="22" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="23" r:id="rId9"/>
     <sheet name="模版" sheetId="18" r:id="rId10"/>
+    <sheet name="哲学家中译本丛书" sheetId="24" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1517">
   <si>
     <t>列14</t>
   </si>
@@ -3187,7 +3188,1325 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李秋零等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全12卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂纪亮主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂纪亮等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北教育出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑格尔作品集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先刚等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁志学主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩林合主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙周兴主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30/40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨恒达等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共15卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来形而上学导论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秋零译注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡塞尔著作集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李幼蒸编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨特文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施康强等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民文学出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加缪全集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全四册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">柳鸣九、沈志明主编 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北教育出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叔本华作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉译世界学术名著丛书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务印书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国现象学文库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先刚主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费希特文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叔本华作品</t>
+  </si>
+  <si>
+    <t>亚里士多德全集</t>
+  </si>
+  <si>
+    <t>共10卷</t>
+  </si>
+  <si>
+    <t>苗力田主编</t>
+  </si>
+  <si>
+    <t>第一卷</t>
+  </si>
+  <si>
+    <t>第二卷</t>
+  </si>
+  <si>
+    <t>第三卷</t>
+  </si>
+  <si>
+    <t>第四卷</t>
+  </si>
+  <si>
+    <t>第五卷</t>
+  </si>
+  <si>
+    <t>第六卷</t>
+  </si>
+  <si>
+    <t>第七卷</t>
+  </si>
+  <si>
+    <t>第八卷</t>
+  </si>
+  <si>
+    <t>第九卷</t>
+  </si>
+  <si>
+    <t>第十卷</t>
+  </si>
+  <si>
     <t>李秋零主编</t>
+  </si>
+  <si>
+    <t>第1卷</t>
+  </si>
+  <si>
+    <t>第2卷</t>
+  </si>
+  <si>
+    <t>第3卷</t>
+  </si>
+  <si>
+    <t>《纯粹理性批判》（第2版）</t>
+  </si>
+  <si>
+    <t>第4卷</t>
+  </si>
+  <si>
+    <t>《纯粹理性批判》（第1版）《未来形而上学导论》《道德形而上学的奠基》《自然科学的形而上学初始根据》</t>
+  </si>
+  <si>
+    <t>第5卷</t>
+  </si>
+  <si>
+    <t>《实践理性批判》《判断力批判》</t>
+  </si>
+  <si>
+    <t>第6卷</t>
+  </si>
+  <si>
+    <t>《纯然理性界限内的宗教》《道德形而上学》</t>
+  </si>
+  <si>
+    <t>第7卷</t>
+  </si>
+  <si>
+    <t>《学科之争》《实用人类学》</t>
+  </si>
+  <si>
+    <t>第8卷</t>
+  </si>
+  <si>
+    <t>1781年之后的论文</t>
+  </si>
+  <si>
+    <t>第9卷</t>
+  </si>
+  <si>
+    <t>逻辑学、自然地理学、教育学</t>
+  </si>
+  <si>
+    <t>黑格尔著作集</t>
+  </si>
+  <si>
+    <t>黑格尔全集</t>
+  </si>
+  <si>
+    <t>第10卷</t>
+  </si>
+  <si>
+    <t>第11卷</t>
+  </si>
+  <si>
+    <t>第12卷</t>
+  </si>
+  <si>
+    <t>第13卷</t>
+  </si>
+  <si>
+    <t>第14卷</t>
+  </si>
+  <si>
+    <t>第15卷</t>
+  </si>
+  <si>
+    <t>第16卷</t>
+  </si>
+  <si>
+    <t>第17卷</t>
+  </si>
+  <si>
+    <t>第18卷</t>
+  </si>
+  <si>
+    <t>第19卷</t>
+  </si>
+  <si>
+    <t>第20卷</t>
+  </si>
+  <si>
+    <t>第21卷</t>
+  </si>
+  <si>
+    <t>第22卷</t>
+  </si>
+  <si>
+    <t>第23卷</t>
+  </si>
+  <si>
+    <t>第24卷</t>
+  </si>
+  <si>
+    <t>第25卷</t>
+  </si>
+  <si>
+    <t>第26卷</t>
+  </si>
+  <si>
+    <t>第27卷</t>
+  </si>
+  <si>
+    <t>第28卷</t>
+  </si>
+  <si>
+    <t>第29卷</t>
+  </si>
+  <si>
+    <t>第30卷</t>
+  </si>
+  <si>
+    <t>叔本华系列</t>
+  </si>
+  <si>
+    <t>叔本华思想随笔</t>
+  </si>
+  <si>
+    <t>叔本华美学随笔</t>
+  </si>
+  <si>
+    <t>叔本华哲学随笔</t>
+  </si>
+  <si>
+    <t>叔本华论道德与自由</t>
+  </si>
+  <si>
+    <t>叔本华论生存与痛苦</t>
+  </si>
+  <si>
+    <t>叔本华哲言录</t>
+  </si>
+  <si>
+    <t>叔本华暮年之思</t>
+  </si>
+  <si>
+    <t>叔本华与梵·高：箴言与绘画</t>
+  </si>
+  <si>
+    <t>附录与补遗</t>
+  </si>
+  <si>
+    <t>充足理由律的四重根</t>
+  </si>
+  <si>
+    <t>叔本华论说文集</t>
+  </si>
+  <si>
+    <t>人生智慧箴言</t>
+  </si>
+  <si>
+    <t>伦理学的两个基本问题</t>
+  </si>
+  <si>
+    <t>论充足理由律的四重根</t>
+  </si>
+  <si>
+    <t>论视觉与颜色</t>
+  </si>
+  <si>
+    <t>论自然中的意志</t>
+  </si>
+  <si>
+    <t>论意志的自由</t>
+  </si>
+  <si>
+    <t>论道德的基础</t>
+  </si>
+  <si>
+    <t>伦理学中的两个基本问题</t>
+  </si>
+  <si>
+    <t>尼采全集</t>
+  </si>
+  <si>
+    <t>尼采著作全集</t>
+  </si>
+  <si>
+    <t>罗素文集</t>
+  </si>
+  <si>
+    <t>维特根斯坦全集</t>
+  </si>
+  <si>
+    <t>维特根斯坦文集</t>
+  </si>
+  <si>
+    <t>全集第1卷</t>
+  </si>
+  <si>
+    <t>全集第2卷</t>
+  </si>
+  <si>
+    <t>陈嘉映、王庆节译</t>
+  </si>
+  <si>
+    <t>全集第3卷</t>
+  </si>
+  <si>
+    <t>全集第4卷</t>
+  </si>
+  <si>
+    <t>全集第5卷</t>
+  </si>
+  <si>
+    <t>全集第6卷</t>
+  </si>
+  <si>
+    <t>全集第7卷</t>
+  </si>
+  <si>
+    <t>全集第8卷</t>
+  </si>
+  <si>
+    <t>全集第9卷</t>
+  </si>
+  <si>
+    <t>全集第10卷</t>
+  </si>
+  <si>
+    <t>全集第11卷</t>
+  </si>
+  <si>
+    <t>全集第12卷</t>
+  </si>
+  <si>
+    <t>全集第13卷</t>
+  </si>
+  <si>
+    <t>全集第14卷</t>
+  </si>
+  <si>
+    <t>陈小文、孙周兴译</t>
+  </si>
+  <si>
+    <t>全集第15卷</t>
+  </si>
+  <si>
+    <t>王志宏、石磊译</t>
+  </si>
+  <si>
+    <t>全集第16卷</t>
+  </si>
+  <si>
+    <t>全集第19卷</t>
+  </si>
+  <si>
+    <t>全集第20卷</t>
+  </si>
+  <si>
+    <t>全集第24卷</t>
+  </si>
+  <si>
+    <t>全集第29/30卷</t>
+  </si>
+  <si>
+    <t>全集第39卷</t>
+  </si>
+  <si>
+    <t>全集第40卷</t>
+  </si>
+  <si>
+    <t>全集第42卷</t>
+  </si>
+  <si>
+    <t>全集第54卷</t>
+  </si>
+  <si>
+    <t>全集第56/57卷</t>
+  </si>
+  <si>
+    <t>全集第60卷</t>
+  </si>
+  <si>
+    <t>全集第63卷</t>
+  </si>
+  <si>
+    <t>全集第65卷</t>
+  </si>
+  <si>
+    <t>全集第77卷</t>
+  </si>
+  <si>
+    <t>全集第79卷</t>
+  </si>
+  <si>
+    <t>包括《范畴篇》、《解释篇》、《前分析篇》、《后分析篇》、《论题篇》和《辩谬篇》</t>
+  </si>
+  <si>
+    <t>包括《物理学》、《论天》、《论生成和消灭》、《天象学》和《论宇宙》</t>
+  </si>
+  <si>
+    <t>心理学和生理学</t>
+  </si>
+  <si>
+    <t>包括《论灵魂》、《论感觉及其对象》、《论记忆》、《论睡眠》、《论梦》、《论睡眠中的征兆》、《论青年和老年》、《论生与死》、《论呼吸》和《论气息》</t>
+  </si>
+  <si>
+    <t>动物学</t>
+  </si>
+  <si>
+    <t>《动物志》</t>
+  </si>
+  <si>
+    <t>包括《论动物部分》、《论动物行进》、《论动物运动》和《论动物生成》</t>
+  </si>
+  <si>
+    <t>物理学短篇著作</t>
+  </si>
+  <si>
+    <t>包括《问题集》等9种</t>
+  </si>
+  <si>
+    <t>包括《克塞诺芬和高尔吉亚》和《形而上学》</t>
+  </si>
+  <si>
+    <t>包括《尼各马科伦理学》、《大伦理学》、《优台谟伦理学》和《论善与恶》</t>
+  </si>
+  <si>
+    <t>政治学和文艺学</t>
+  </si>
+  <si>
+    <t>包括《政治学》、《家政学》、《修辞学》、《亚历山大修辞学》和《论诗》</t>
+  </si>
+  <si>
+    <t>增补</t>
+  </si>
+  <si>
+    <t>包括《雅典政制》和《残篇》选</t>
+  </si>
+  <si>
+    <t>共9卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前批判时期著作Ⅰ（1747-1756）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前批判时期著作Ⅱ（1757-1777）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德政治哲学文集（注释版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德三大批判合集（注释版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德人类学文集（注释版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德文集注释版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德美学文集（注释版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德宗教哲学文集（注释版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德自然哲学文集（注释版）（上、下卷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德道德哲学文集（注释版）（上、下卷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德教育哲学文集（注释版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德认识论文集（注释版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德历史哲学文集（注释版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康德文集注释本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践理性批判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断力批判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯然理性界限内的宗教</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实用人类学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德形而上学的奠基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德形而上学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯粹理性批判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以普鲁士王家科学院本（通称“科学院版”）为底本，全部直接从德文译出，原文为拉丁文的则直接从拉丁文译出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普鲁士王家科学院本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1991.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1992.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1990.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1993.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1994.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1995.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1996.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲剧的诞生 不合时宜的思考 1870-1873年遗稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨恒达译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人性的，太人性的</t>
+  </si>
+  <si>
+    <t>人性的，太人性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝霞 墨西拿的田园诗 快乐的知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛书名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第8卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李幼蒸译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教哲学讲演录Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神现象学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗教哲学讲演录Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑学Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶拿时期著作（1801-1807）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法哲学原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先刚译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学科学百科全书III 精神哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨祖陶译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱更生译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓安庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世英主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论著作版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早期著作集Ⅰ（1785－1796）</t>
+  </si>
+  <si>
+    <t>早期著作集Ⅱ（1797－1800）</t>
+  </si>
+  <si>
+    <t>早期读书摘录（1785－1796）</t>
+  </si>
+  <si>
+    <t>耶拿评论集（1801－1807）</t>
+  </si>
+  <si>
+    <t>著作与草稿（1799－1808）</t>
+  </si>
+  <si>
+    <t>耶拿体系草稿Ⅰ（1803/1804）</t>
+  </si>
+  <si>
+    <t>耶拿体系草稿Ⅱ（1804/1805）</t>
+  </si>
+  <si>
+    <t>耶拿体系草稿Ⅱ（1805/1806）</t>
+  </si>
+  <si>
+    <t>精神现象学（1807）</t>
+  </si>
+  <si>
+    <t>纽伦堡高级中学教程和讲话（1808－1816）</t>
+  </si>
+  <si>
+    <t>逻辑科学（上册）（1812，1813）</t>
+  </si>
+  <si>
+    <t>逻辑科学（下册）（1816）</t>
+  </si>
+  <si>
+    <t>哲学全书纲要（1817）</t>
+  </si>
+  <si>
+    <t>法哲学纲要（1821）上、中、下三册</t>
+  </si>
+  <si>
+    <t>著作与草稿（1817－1825）</t>
+  </si>
+  <si>
+    <t>著作与草稿（1826－1831）</t>
+  </si>
+  <si>
+    <t>哲学全书纲要（1827）</t>
+  </si>
+  <si>
+    <t>哲学全书纲要（1830）</t>
+  </si>
+  <si>
+    <t>逻辑科学（上册）（1832）</t>
+  </si>
+  <si>
+    <t>读书摘录（1816－1831）</t>
+  </si>
+  <si>
+    <t>逻辑科学讲演录（1817，1831）</t>
+  </si>
+  <si>
+    <t>自然哲学讲演录（1819/1820）</t>
+  </si>
+  <si>
+    <t>主观精神哲学讲演录（第Ⅰ册）（1822，1825）</t>
+  </si>
+  <si>
+    <t>法哲学讲演录（1819/1820）</t>
+  </si>
+  <si>
+    <t>宗教哲学讲演录（1824，1827，1830）</t>
+  </si>
+  <si>
+    <t>哲学史讲演录（1816－1824，1831）</t>
+  </si>
+  <si>
+    <t>2012.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁志学、李理译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈真、张东辉译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭大为、梁志学译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张东辉、户晓辉译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲演手稿Ⅰ（1816—1831）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲演手稿Ⅱ（1816—1831）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界史哲学讲演录（1822—1823）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘立群、沈真、张东辉、姚燕译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术哲学讲演录（1823）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡塞尔文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2017.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪梁康等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共5卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁志学译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁志学编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收录1800-1806年的8部著作，包括：《锁闭的商业国》、《六年以来》、《就最新哲学的真正本质向广大读者所作的明如白昼的报道》、《答赖因霍尔德教授先生》、《弗利德里希•尼古拉的生平和怪论》、《关于学者的本质及其在自由领域的表现》、《现时代的根本特点》、《附录：共济会的哲学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收录1806-1813年的6部著作，包括：《极乐生活指南》、《论马基雅维里》、《对德意志民族的演讲》、《知识学纲要》、《关于对学府自由唯一可能的干预》、《关于学者使命的演讲》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《费希特全集》巴伐利亚科学院版、商务印书馆之前出版的《费希特著作选集》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收录1792-1794年的7部著作，包括：《试评一切天启》、《向欧洲各国君主索回他们迄今压制的思想自由》、《纠正公众对于法国革命的评论》、《评&lt;埃奈西德穆&gt;》、《论人的尊严》、《论知识学或所谓哲学的概念》、《全部知识学的基础》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收录1798-1800年的8部著作，包括：《以知识学为原则的伦理学体系》、《关于我们信仰上帝统治世界的根据》、《向公众呼吁》、《法律辩护书》、《人的使命》、《关于哲学中的精神与字母》、《一封私函的摘录》、《评&lt;第一逻辑纲要&gt;》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收录1794-1798年的9部著作，包括：《关于学者使命的若干演讲》、《论激励和提高对于真理的纯粹兴趣》、《论语言能力和语言起源》、《略论知识学的特征》、《评论永久和平》、《施米特体系与知识学的比较》、《自然法权基础》、《知识学新说》、《哲学论调纪事》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费希特著作选集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁志学主编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁志学等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北莱茵—威斯特伐伦科学院编辑的历史考订版黑格尔全集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨大春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张颖译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张柯、马小虎译</t>
+  </si>
+  <si>
+    <t>王庆节译</t>
+  </si>
+  <si>
+    <t>孙周兴译</t>
+  </si>
+  <si>
+    <t>张柯译</t>
+  </si>
+  <si>
+    <t>孙周兴、陈小文、余明锋译</t>
+  </si>
+  <si>
+    <t>孙周兴、杨光、余明锋译</t>
+  </si>
+  <si>
+    <t>孙周兴、张柯、王宏健译</t>
+  </si>
+  <si>
+    <t>熊林译</t>
+  </si>
+  <si>
+    <t>欧东明译</t>
+  </si>
+  <si>
+    <t>丁耘译</t>
+  </si>
+  <si>
+    <t>赵卫国译</t>
+  </si>
+  <si>
+    <t>张振华译</t>
+  </si>
+  <si>
+    <t>王庆节新译</t>
+  </si>
+  <si>
+    <t>王丁、李阳译</t>
+  </si>
+  <si>
+    <t>朱清华译</t>
+  </si>
+  <si>
+    <t>孙周兴、高松译</t>
+  </si>
+  <si>
+    <t>欧东明、张振华译</t>
+  </si>
+  <si>
+    <t>何卫平译</t>
+  </si>
+  <si>
+    <t>孙周兴、张灯译</t>
+  </si>
+  <si>
+    <t>简论上帝、人及其心灵健康 知性改进论</t>
+  </si>
+  <si>
+    <t>笛卡尔哲学原理 政治论</t>
+  </si>
+  <si>
+    <t>神学政治论</t>
+  </si>
+  <si>
+    <t>书信集</t>
+  </si>
+  <si>
+    <t>斯宾诺莎文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全5卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺麟译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪汉鼎译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温锡增译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王荫庭、洪汉鼎，冯炳坤译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾寿观，贺麟译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神学大全第一集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《神学大全 第一集 论上帝 第1卷 论上帝的本质》</t>
+  </si>
+  <si>
+    <t>《神学大全 第一集 论上帝 第2卷 论三位一体 第3卷 论创造》</t>
+  </si>
+  <si>
+    <t>《神学大全 第一集 论上帝 第4卷 论天使 第5卷 论六天工作》</t>
+  </si>
+  <si>
+    <t>《神学大全 第一集 论上帝 第6卷 论人》</t>
+  </si>
+  <si>
+    <t>《神学大全 第一集 论上帝 第7卷 论上帝的管理》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第1卷：忏悔录（上）》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第2卷：忏悔录（下）》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第3卷：一个孤独的散步者的梦及其他》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第4卷：社会契约论 论人与人之间不平等的起因和基础 论科学与艺术的复兴是否有助于使风俗日趋淳朴及其他》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第5卷：致达朗贝尔的信 政治经济学 山中来信及其他》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第6卷：爱弥儿(上)</t>
+  </si>
+  <si>
+    <t>论教育》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第7卷：爱弥儿(下)</t>
+  </si>
+  <si>
+    <t>论教育及其他》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第8卷：新爱洛伊丝(上)》</t>
+  </si>
+  <si>
+    <t>《卢梭全集 第9卷：新爱洛伊丝(下)及其他》</t>
+  </si>
+  <si>
+    <t>商务印书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢梭全集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕宏远、张国良译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕宏远、张松、郭成译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙周兴译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科利/蒙提那里考订研究版《尼采著作全集》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙周兴、李超杰、余明锋译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵千帆译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙周兴译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗兰·巴尔特文集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3195,279 +4514,838 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共9册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚里士多德全集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李秋零等译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共10卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗力田主编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">苗力田、徐开来、余纪元、秦典华、颜一、崔延强、李秋零 等 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海德格尔文集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>列维-斯特劳斯文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对莱布尼茨哲学的批评性解释</t>
+  </si>
+  <si>
+    <t>哲学问题 宗教与哲学</t>
+  </si>
+  <si>
+    <t>数理哲学导论</t>
+  </si>
+  <si>
+    <t>心的分析</t>
+  </si>
+  <si>
+    <t>权力论 权威与个人</t>
+  </si>
+  <si>
+    <t>意义与真理的探究</t>
+  </si>
+  <si>
+    <t>西方哲学史(上卷)</t>
+  </si>
+  <si>
+    <t>西方哲学史(下卷)</t>
+  </si>
+  <si>
+    <t>我的哲学的发展</t>
+  </si>
+  <si>
+    <t>何兆武、李约瑟译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马元德译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段德智、张传有、陈家琪译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何兆武、徐奕春、林国夫译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晏成书译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾可春译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴友三、储智勇译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金言译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苑莉均译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑与知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么我不是基督徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐奕春、胡溪、渔仁译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温锡增译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡作玄、赵慧琪译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗素自传第一卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗素自传第三卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗素自传第二卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈启伟译</t>
+  </si>
+  <si>
+    <t>陈启伟译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐奕春译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪梁康译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑哲学论以及其他</t>
+  </si>
+  <si>
+    <t>路德维希·维特根斯坦与维也纳小姐 B·F·MCGUINNESS编</t>
+  </si>
+  <si>
+    <t>哲学评论 R·RHEES编</t>
+  </si>
+  <si>
+    <t>哲学语法 R·RHEES编</t>
+  </si>
+  <si>
+    <t>程志民译</t>
+  </si>
+  <si>
+    <t>维特根斯坦剑桥 讲演集</t>
+  </si>
+  <si>
+    <t>周晓亮 江怡译</t>
+  </si>
+  <si>
+    <t>蓝皮书 一种哲学考察（褐皮书）</t>
+  </si>
+  <si>
+    <t>涂纪亮译</t>
+  </si>
+  <si>
+    <t>论数学的基础</t>
+  </si>
+  <si>
+    <t>心理学哲学评论</t>
+  </si>
+  <si>
+    <t>关于心理学哲学的最后著作论确实性</t>
+  </si>
+  <si>
+    <t>杂评 纸条集 关于颜色的评论</t>
+  </si>
+  <si>
+    <t>关于伦理学的讲演以及其他</t>
+  </si>
+  <si>
+    <t>江怡译</t>
+  </si>
+  <si>
+    <t>黄裕生、郭大为译</t>
+  </si>
+  <si>
+    <t>丁冬红、郑伊倩、何建华译</t>
+  </si>
+  <si>
+    <t>徐友渔、涂纪亮译</t>
+  </si>
+  <si>
+    <t>涂纪亮、张金言译</t>
+  </si>
+  <si>
+    <t>涂纪亮、吴晓红、李洁译</t>
+  </si>
+  <si>
+    <t>8/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩林合编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘畅编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张励耕编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录与补遗（第1卷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生的智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦启昌译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐格飞译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李连江译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范进等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石冲白译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晓希译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任立、孟庆时译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为意志与表象的世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生的智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观念力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘大悲译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张尚德译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晓南译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱与生的苦恼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑格尔作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务印书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑格尔早期神学著作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨一之译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑学（套装上下卷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺麟译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法哲学原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学史讲演录（4卷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺麟等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美学（3卷）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神现象学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺麟等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张企秦等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑格尔早期著作集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学科学全书纲要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛华译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然哲学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁志学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费希特与谢林哲学体系的差别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋祖良等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱光潜等译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅洛-庞蒂文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢林著作集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2018.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王丁译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论世界灵魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄振华译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早期唯心主义著作</t>
+  </si>
+  <si>
+    <t>一种自然哲学的理念</t>
+  </si>
+  <si>
+    <t>对我的哲学体系的阐述</t>
+  </si>
+  <si>
+    <t>学术研究方法论</t>
+  </si>
+  <si>
+    <t>艺术哲学</t>
+  </si>
+  <si>
+    <t>哲学与宗教</t>
+  </si>
+  <si>
+    <t>论人类自由的本质及相关对象</t>
+  </si>
+  <si>
+    <t>世界时代</t>
+  </si>
+  <si>
+    <t>近代哲学史</t>
+  </si>
+  <si>
+    <t>神话哲学之哲学导论</t>
+  </si>
+  <si>
+    <t>神话哲学</t>
+  </si>
+  <si>
+    <t>启示哲学导论</t>
+  </si>
+  <si>
+    <t>天启哲学（上）</t>
+  </si>
+  <si>
+    <t>天启哲学（下）</t>
+  </si>
+  <si>
+    <t>神话哲学之历史-批判导论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲剧的诞生 不合时宜的考察 1870－1873年遗著</t>
+  </si>
+  <si>
+    <t>曙光 墨西拿牧歌 快乐的科学</t>
+  </si>
+  <si>
+    <t>善恶的彼岸 论道德的谱系</t>
+  </si>
+  <si>
+    <t>1869－1874年遗稿</t>
+  </si>
+  <si>
+    <t>1875－1879年遗稿</t>
+  </si>
+  <si>
+    <t>1880－1882年遗稿</t>
+  </si>
+  <si>
+    <t>1882－1884年遗稿</t>
+  </si>
+  <si>
+    <t>1884－1885年遗稿</t>
+  </si>
+  <si>
+    <t>1885－1887年遗稿</t>
+  </si>
+  <si>
+    <t>1887－1889年遗稿</t>
+  </si>
+  <si>
+    <t>尼采生平编年史 尼采著作全集总索引</t>
+  </si>
+  <si>
+    <t>瓦格纳事件 偶像的黄昏 敌基督者 瞧，这个人 狄奥尼索斯颂歌 尼采反瓦格纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式逻辑和先验逻辑：逻辑理性批评研究</t>
+  </si>
+  <si>
+    <t>纯粹现象学通论：纯粹现象学和现象学哲学的观念 第1卷</t>
+  </si>
+  <si>
+    <t>现象学的构成研究：纯粹现象学和现象学哲学的观念 第2卷</t>
+  </si>
+  <si>
+    <t>现象学和科学基础：纯粹现象学和现象学哲学的观念 第3卷</t>
+  </si>
+  <si>
+    <t>现象学心理学</t>
+  </si>
+  <si>
+    <t>经验与判断</t>
+  </si>
+  <si>
+    <t>第五、第六逻辑研究</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贝尔瑙时间意识手稿 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战时笔记（1914－1917）</t>
+  </si>
+  <si>
+    <t>哲学语法</t>
+  </si>
+  <si>
+    <t>数学基础研究</t>
+  </si>
+  <si>
+    <t>心理学哲学研究</t>
+  </si>
+  <si>
+    <t>心理学哲学笔记（1948－1950）</t>
+  </si>
+  <si>
+    <t>最后的哲学笔记（1950－1951）</t>
   </si>
   <si>
     <t>孙周兴、王庆节主编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务印书馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海人民出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦启昌等译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑格尔全集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务印书馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维特根斯坦全集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全12卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂纪亮主编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涂纪亮等译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北教育出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗素文集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务印书馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑格尔作品集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑格尔著作集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先刚等译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁志学主编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维特根斯坦文集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩林合主编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼采著作全集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙周兴主编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30/40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼采全集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨恒达等译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4/?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共15卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来形而上学导论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康德文集-注释版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李秋零译注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡塞尔著作集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李幼蒸编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨特文集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施康强等译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民文学出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加缪全集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全四册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">柳鸣九、沈志明主编 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北教育出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叔本华作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石冲白等译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉译世界学术名著丛书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务印书馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国现象学文库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢林著作集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先刚主编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京大学出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费希特文集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共5册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁志学等译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014</t>
+  </si>
+  <si>
+    <t>存在与时间（中文修订第二版）</t>
+  </si>
+  <si>
+    <t>康德与形而上学疑难</t>
+  </si>
+  <si>
+    <t>荷尔德林诗的阐释</t>
+  </si>
+  <si>
+    <t>尼采（套装上下卷）</t>
+  </si>
+  <si>
+    <t>演讲与论文集（修订译本）</t>
+  </si>
+  <si>
+    <t>柏拉图的〈智者〉</t>
+  </si>
+  <si>
+    <t>现象学之基本问题（修订译本）</t>
+  </si>
+  <si>
+    <t>荷尔德林的颂歌《日耳曼尼亚》与《莱茵河》</t>
+  </si>
+  <si>
+    <t>形而上学导论（新译本）</t>
+  </si>
+  <si>
+    <t>谢林：论人类自由的本质</t>
+  </si>
+  <si>
+    <t>巴门尼德</t>
+  </si>
+  <si>
+    <t>宗教生活现象学</t>
+  </si>
+  <si>
+    <t>存在论（实际性的解释学）</t>
+  </si>
+  <si>
+    <t>乡间路上的谈话</t>
+  </si>
+  <si>
+    <t>讲话与生平证词（1910-1976）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为的结构</t>
+  </si>
+  <si>
+    <t>人道主义与恐怖</t>
+  </si>
+  <si>
+    <t>意义与无意义</t>
+  </si>
+  <si>
+    <t>哲学赞词</t>
+  </si>
+  <si>
+    <t>辩证法的历险</t>
+  </si>
+  <si>
+    <t>符号</t>
+  </si>
+  <si>
+    <t>眼与心·世界的散文</t>
+  </si>
+  <si>
+    <t>可见的与不可见的</t>
+  </si>
+  <si>
+    <t>知觉的首要性及其哲学结论</t>
+  </si>
+  <si>
+    <t>1948年谈话录·儿童与他人的关系</t>
+  </si>
+  <si>
+    <t>马勒伯朗士、比朗和柏格森论心身统一</t>
+  </si>
+  <si>
+    <t>儿童心理学与教育学</t>
+  </si>
+  <si>
+    <t>关于语言的文学使用研究</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>建制·被动性</t>
+  </si>
+  <si>
+    <t>法兰西学院课程摘要</t>
+  </si>
+  <si>
+    <t>哲人之旅</t>
+  </si>
+  <si>
+    <t>笛卡尔式的沉思</t>
+  </si>
+  <si>
+    <t>现象学的观念</t>
+  </si>
+  <si>
+    <t>纯粹现象学与现象学哲学的观念（三卷）</t>
+  </si>
+  <si>
+    <t>欧洲科学的危机与超越论的现象学</t>
+  </si>
+  <si>
+    <t>第一哲学（两卷）</t>
+  </si>
+  <si>
+    <t>现象学的心理学</t>
+  </si>
+  <si>
+    <t>内时间意识现象学</t>
+  </si>
+  <si>
+    <t>被动综合分析</t>
+  </si>
+  <si>
+    <t>算术哲学</t>
+  </si>
+  <si>
+    <t>共主观性的现象学（三卷）</t>
+  </si>
+  <si>
+    <t>事物与空间</t>
+  </si>
+  <si>
+    <t>形式逻辑与超越论逻辑</t>
+  </si>
+  <si>
+    <t>逻辑研究（两卷三册）</t>
+  </si>
+  <si>
+    <t>想象、图像意识、回忆——直观当下化的现象学</t>
+  </si>
+  <si>
+    <t>逻辑学与认识论引论</t>
+  </si>
+  <si>
+    <t>含义理论讲座稿</t>
+  </si>
+  <si>
+    <t>伦理学与价值论讲座</t>
+  </si>
+  <si>
+    <t>欧洲科学的危机与超越论的现象学·补充卷</t>
+  </si>
+  <si>
+    <t>主动综合分析</t>
+  </si>
+  <si>
+    <t>自然与精神</t>
+  </si>
+  <si>
+    <t>关于时间意识的贝尔瑙文稿</t>
+  </si>
+  <si>
+    <t>论现象学的还原</t>
+  </si>
+  <si>
+    <t>哲学引论</t>
+  </si>
+  <si>
+    <t>超越论的观念论</t>
+  </si>
+  <si>
+    <t>伦理学引论</t>
+  </si>
+  <si>
+    <t>感知与注意力</t>
+  </si>
+  <si>
+    <t>论本质学说与本质变更方法</t>
+  </si>
+  <si>
+    <t>现象学的临界问题</t>
+  </si>
+  <si>
+    <t>文章与报告（1922-1937年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章与讲演（1910-1921年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章与书评（1890-1910年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社/译者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查拉图斯特拉如是说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>译者/其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编者/分卷名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3491,12 +5369,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3511,9 +5395,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11122,6 +13007,3467 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H322"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="E311" sqref="E311"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C34" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C35" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C39" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C42" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C43" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B53" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B77" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B78" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B97" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B98" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C112" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C113" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C114" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C115" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C116" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C117" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C118" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C119" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C120" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C122" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B124" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B125" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B126" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B129" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B131" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B137" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B138" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B139" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B140" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C142" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C143" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C144" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C145" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C146" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C147" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C148" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C149" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C150" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C151" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C153" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C154" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C155" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C156" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C157" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C159" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C160" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C161" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C162" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C163" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C166" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C167" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C168" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C169" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C170" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C171" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C172" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C173" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B175" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B176" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B177" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B178" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B180" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B181" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B182" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B183" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B184" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B185" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B186" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B187" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B188" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B189" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B190" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B191" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B192" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B193" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B195" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B196" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B197" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B198" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B199" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B200" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B201" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B202" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B203" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B204" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B205" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B206" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B207" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B208" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B209" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B211" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B212" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B213" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B214" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B215" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B216" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B217" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B218" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B220" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B221" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B222" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B223" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B224" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B225" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B226" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B227" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B228" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B229" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B231" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B232" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B233" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B234" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B235" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B236" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B237" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B238" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B239" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B240" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B241" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B242" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B243" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B244" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B245" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B246" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B247" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B248" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B249" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B250" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B252" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B253" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B254" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B255" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B256" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B257" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B258" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B259" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B260" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B261" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B262" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B263" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B265" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B266" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B267" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B268" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B269" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B270" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B271" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B272" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B274" s="1">
+        <v>1</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B275" s="1">
+        <v>2</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B276" s="1">
+        <v>3</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B277" s="1">
+        <v>4</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B278" s="1">
+        <v>5</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B279" s="1">
+        <v>6</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B280" s="1">
+        <v>7</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B281" s="1">
+        <v>8</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B282" s="1">
+        <v>9</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B283" s="1">
+        <v>10</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B284" s="1">
+        <v>11</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B285" s="1">
+        <v>12</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B286" s="1">
+        <v>13</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B287" s="1">
+        <v>14</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B288" s="1">
+        <v>15</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B289" s="1">
+        <v>16</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B290" s="1">
+        <v>17</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B291" s="1">
+        <v>18</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B292" s="1">
+        <v>19</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B293" s="1">
+        <v>20</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B294" s="1">
+        <v>21</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B295" s="1">
+        <v>22</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B296" s="1">
+        <v>23</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B297" s="1">
+        <v>24</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B298" s="1">
+        <v>25</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B299" s="1">
+        <v>26</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B300" s="1">
+        <v>27</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B301" s="1">
+        <v>28</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B302" s="1">
+        <v>29</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B303" s="1">
+        <v>30</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B305" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B306" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B307" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B308" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B309" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B310" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B311" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B312" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B313" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B314" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B315" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B316" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B317" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B318" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B319" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B320" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B321" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B322" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y451"/>
@@ -11849,7 +17195,7 @@
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="1" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>360</v>
@@ -30501,7 +35847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -31238,7 +36584,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="I36"/>
       <c r="N36" s="1"/>
@@ -33477,10 +38823,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33494,297 +38840,160 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2016</v>
+        <v>918</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>894</v>
+        <v>920</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>896</v>
+        <v>921</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2013</v>
+        <v>922</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>893</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>961</v>
+        <v>927</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>962</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>921</v>
+        <v>1241</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>906</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>918</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>958</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>903</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>646</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>914</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>931</v>
+        <v>1259</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>533</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>915</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>533</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>902</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>912</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1252</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>946</v>
+        <v>1254</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>646</v>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1271</v>
       </c>
     </row>
   </sheetData>

--- a/书.xlsx
+++ b/书.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3879" uniqueCount="2170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="2176">
   <si>
     <t>列14</t>
   </si>
@@ -7368,6 +7368,30 @@
   </si>
   <si>
     <t>《卢梭全集 第7卷：爱弥儿(下)-论教育及其他》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azw3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12402,9 +12426,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190:H204"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12418,7 +12444,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1100</v>
       </c>
@@ -12440,8 +12466,11 @@
       <c r="G1" s="1" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>926</v>
       </c>
@@ -12460,8 +12489,11 @@
       <c r="G2" s="2" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="2" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>928</v>
       </c>
@@ -12478,7 +12510,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>929</v>
       </c>
@@ -12495,7 +12527,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>930</v>
       </c>
@@ -12512,7 +12544,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>931</v>
       </c>
@@ -12526,7 +12558,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>932</v>
       </c>
@@ -12543,7 +12575,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>933</v>
       </c>
@@ -12560,7 +12592,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>934</v>
       </c>
@@ -12577,7 +12609,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>935</v>
       </c>
@@ -12594,7 +12626,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>936</v>
       </c>
@@ -12611,7 +12643,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>937</v>
       </c>
@@ -12628,7 +12660,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>1201</v>
       </c>
@@ -12639,7 +12671,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>939</v>
       </c>
@@ -12653,7 +12685,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>940</v>
       </c>
@@ -12667,7 +12699,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>941</v>
       </c>
@@ -12681,7 +12713,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>943</v>
       </c>
@@ -12695,7 +12727,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>945</v>
       </c>
@@ -12709,7 +12741,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>891</v>
       </c>
@@ -12731,8 +12763,11 @@
       <c r="G19" s="2" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="2" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>939</v>
       </c>
@@ -12743,7 +12778,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>940</v>
       </c>
@@ -12754,7 +12789,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>941</v>
       </c>
@@ -12765,7 +12800,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>943</v>
       </c>
@@ -12776,7 +12811,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>945</v>
       </c>
@@ -12787,7 +12822,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>947</v>
       </c>
@@ -12798,7 +12833,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>949</v>
       </c>
@@ -12809,7 +12844,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>951</v>
       </c>
@@ -12820,7 +12855,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>953</v>
       </c>
@@ -12831,7 +12866,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>1065</v>
       </c>
@@ -12845,7 +12880,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>1504</v>
       </c>
@@ -12855,8 +12890,11 @@
       <c r="F30" s="1" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>98</v>
       </c>
@@ -12866,8 +12904,11 @@
       <c r="F31" s="1" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>101</v>
       </c>
@@ -12877,8 +12918,11 @@
       <c r="F32" s="1" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H32" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>130</v>
       </c>
@@ -12889,7 +12933,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
@@ -12900,7 +12944,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>91</v>
       </c>
@@ -12911,7 +12955,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
@@ -12922,7 +12966,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>79</v>
       </c>
@@ -12933,7 +12977,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>1056</v>
       </c>
@@ -12947,7 +12991,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>1504</v>
       </c>
@@ -12958,7 +13002,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>98</v>
       </c>
@@ -12969,7 +13013,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
@@ -12980,7 +13024,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>130</v>
       </c>
@@ -12990,8 +13034,11 @@
       <c r="F42" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H42" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
@@ -13002,7 +13049,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>91</v>
       </c>
@@ -13013,7 +13060,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>39</v>
       </c>
@@ -13024,7 +13071,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>79</v>
       </c>
@@ -13034,8 +13081,11 @@
       <c r="F46" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H46" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>67</v>
       </c>
@@ -13046,7 +13096,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>31</v>
       </c>
@@ -13528,7 +13578,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>966</v>
       </c>
@@ -13536,7 +13586,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>967</v>
       </c>
@@ -13544,7 +13594,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>968</v>
       </c>
@@ -13552,7 +13602,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>969</v>
       </c>
@@ -13560,7 +13610,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>970</v>
       </c>
@@ -13568,7 +13618,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
         <v>971</v>
       </c>
@@ -13576,7 +13626,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>972</v>
       </c>
@@ -13584,7 +13634,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>973</v>
       </c>
@@ -13592,7 +13642,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B105" s="1" t="s">
         <v>974</v>
       </c>
@@ -13606,7 +13656,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>975</v>
       </c>
@@ -13614,7 +13664,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>976</v>
       </c>
@@ -13622,7 +13672,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B108" s="1" t="s">
         <v>977</v>
       </c>
@@ -13630,12 +13680,12 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
         <v>1504</v>
       </c>
@@ -13645,8 +13695,11 @@
       <c r="E110" s="1" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H110" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
         <v>98</v>
       </c>
@@ -13656,8 +13709,11 @@
       <c r="E111" s="1" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H111" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
         <v>101</v>
       </c>
@@ -13667,8 +13723,11 @@
       <c r="E112" s="1" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H112" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B113" s="1" t="s">
         <v>130</v>
       </c>
@@ -13678,8 +13737,11 @@
       <c r="E113" s="1" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H113" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B114" s="1" t="s">
         <v>84</v>
       </c>
@@ -13690,7 +13752,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B115" s="1" t="s">
         <v>91</v>
       </c>
@@ -13700,8 +13762,11 @@
       <c r="E115" s="1" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H115" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
         <v>39</v>
       </c>
@@ -13711,8 +13776,11 @@
       <c r="E116" s="1" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H116" s="1" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B117" s="1" t="s">
         <v>79</v>
       </c>
@@ -13722,8 +13790,11 @@
       <c r="E117" s="1" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H117" s="1" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
         <v>67</v>
       </c>
@@ -13733,8 +13804,11 @@
       <c r="E118" s="1" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H118" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
         <v>31</v>
       </c>
@@ -13745,7 +13819,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
         <v>75</v>
       </c>
@@ -13755,8 +13829,11 @@
       <c r="E120" s="1" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H120" s="1" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>1338</v>
       </c>
@@ -13770,7 +13847,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>1339</v>
       </c>
@@ -13778,7 +13855,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
         <v>98</v>
       </c>
@@ -13786,7 +13863,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
         <v>101</v>
       </c>
@@ -13794,7 +13871,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
         <v>130</v>
       </c>
@@ -13802,7 +13879,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B126" s="1" t="s">
         <v>84</v>
       </c>
@@ -13816,7 +13893,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B127" s="1" t="s">
         <v>91</v>
       </c>
@@ -13824,7 +13901,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B128" s="1" t="s">
         <v>39</v>
       </c>
@@ -13838,7 +13915,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B129" s="1" t="s">
         <v>79</v>
       </c>
@@ -13852,7 +13929,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B130" s="1" t="s">
         <v>67</v>
       </c>
@@ -13866,7 +13943,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B131" s="1" t="s">
         <v>31</v>
       </c>
@@ -13880,7 +13957,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B132" s="1" t="s">
         <v>75</v>
       </c>
@@ -13888,7 +13965,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B133" s="1" t="s">
         <v>139</v>
       </c>
@@ -13896,7 +13973,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B134" s="1" t="s">
         <v>62</v>
       </c>
@@ -13904,7 +13981,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B135" s="1" t="s">
         <v>1340</v>
       </c>
@@ -13918,7 +13995,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B136" s="1" t="s">
         <v>1341</v>
       </c>
@@ -13926,7 +14003,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B137" s="1" t="s">
         <v>1342</v>
       </c>
@@ -13934,7 +14011,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
         <v>1463</v>
       </c>
@@ -13948,12 +14025,12 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
         <v>1504</v>
       </c>
@@ -13963,8 +14040,11 @@
       <c r="E140" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H140" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B141" s="1" t="s">
         <v>98</v>
       </c>
@@ -13974,8 +14054,11 @@
       <c r="E141" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H141" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B142" s="1" t="s">
         <v>101</v>
       </c>
@@ -13985,8 +14068,11 @@
       <c r="E142" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H142" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B143" s="1" t="s">
         <v>130</v>
       </c>
@@ -13997,7 +14083,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B144" s="1" t="s">
         <v>84</v>
       </c>
@@ -14007,8 +14093,11 @@
       <c r="E144" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H144" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
         <v>91</v>
       </c>
@@ -14018,8 +14107,11 @@
       <c r="E145" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H145" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B146" s="1" t="s">
         <v>39</v>
       </c>
@@ -14030,7 +14122,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B147" s="1" t="s">
         <v>79</v>
       </c>
@@ -14041,7 +14133,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B148" s="1" t="s">
         <v>67</v>
       </c>
@@ -14052,7 +14144,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B149" s="1" t="s">
         <v>31</v>
       </c>
@@ -14063,7 +14155,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B150" s="1" t="s">
         <v>75</v>
       </c>
@@ -14074,7 +14166,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B151" s="1" t="s">
         <v>139</v>
       </c>
@@ -14084,8 +14176,11 @@
       <c r="E151" s="1" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H151" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B152" s="1" t="s">
         <v>62</v>
       </c>
@@ -14095,8 +14190,11 @@
       <c r="E152" s="1" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H152" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B153" s="1" t="s">
         <v>1340</v>
       </c>
@@ -14107,7 +14205,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B154" s="1" t="s">
         <v>1341</v>
       </c>
@@ -14118,7 +14216,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B155" s="1" t="s">
         <v>1342</v>
       </c>
@@ -14128,8 +14226,11 @@
       <c r="E155" s="1" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H155" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B156" s="1" t="s">
         <v>1463</v>
       </c>
@@ -14139,8 +14240,11 @@
       <c r="E156" s="1" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H156" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B157" s="1" t="s">
         <v>1464</v>
       </c>
@@ -14150,8 +14254,11 @@
       <c r="E157" s="1" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H157" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B158" s="1" t="s">
         <v>45</v>
       </c>
@@ -14161,8 +14268,11 @@
       <c r="E158" s="1" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H158" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B159" s="1" t="s">
         <v>1465</v>
       </c>
@@ -14172,8 +14282,11 @@
       <c r="E159" s="1" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H159" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>925</v>
       </c>

--- a/书.xlsx
+++ b/书.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="9180" tabRatio="850" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11385" windowHeight="9180" tabRatio="850" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="心理学" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7783" uniqueCount="3788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="3791">
   <si>
     <t>列14</t>
   </si>
@@ -13106,6 +13106,18 @@
   </si>
   <si>
     <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式：可复用面向对象软件的基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李英军等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erich Gamma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18049,7 +18061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
@@ -55671,8 +55683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X414"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -56366,10 +56378,22 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B22"/>
+      <c r="C22" s="1" t="s">
+        <v>3788</v>
+      </c>
       <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
+      <c r="E22">
+        <v>2007</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3789</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
